--- a/src/main/resources/Donnes.xlsx
+++ b/src/main/resources/Donnes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JGuiral\Documents\PROJET\GAMECASH\SELENIUM\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wbenmessaoud\Desktop\Wass\TrainingZenity\Appium-demo-Zenity\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECEBF32-A600-427A-9916-90978C79A84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554155A2-F738-4550-A13A-3B1DAB154FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{02BA424B-3285-4C5E-ACAA-4E99BC427988}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02BA424B-3285-4C5E-ACAA-4E99BC427988}"/>
   </bookViews>
   <sheets>
-    <sheet name="Creation" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Search" sheetId="3" r:id="rId3"/>
+    <sheet name="PassOrder" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>email</t>
   </si>
@@ -42,60 +42,9 @@
     <t>password</t>
   </si>
   <si>
-    <t>pseudo</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>prenom</t>
-  </si>
-  <si>
-    <t>portable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date de naissance </t>
-  </si>
-  <si>
-    <t>adresse</t>
-  </si>
-  <si>
-    <t>cp</t>
-  </si>
-  <si>
-    <t>ville</t>
-  </si>
-  <si>
     <t>Cacahuette9102</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>guuiral</t>
-  </si>
-  <si>
-    <t>julien</t>
-  </si>
-  <si>
-    <t>0699492619</t>
-  </si>
-  <si>
-    <t>4 avenue Laurent Cely</t>
-  </si>
-  <si>
-    <t>Asnieres sur Seine</t>
-  </si>
-  <si>
-    <t>09/09/1998</t>
-  </si>
-  <si>
-    <t>92600</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -111,10 +60,13 @@
     <t>ps5</t>
   </si>
   <si>
-    <t>tese276678@yopmail.com</t>
-  </si>
-  <si>
-    <t>ax99e965</t>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>wass1993</t>
+  </si>
+  <si>
+    <t>test276678@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -192,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,9 +159,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,104 +488,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958CBEBB-D157-4DAF-B25B-70ACD21C2279}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5"/>
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -655,26 +544,26 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
+    <row r="1" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
+    <row r="2" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -693,23 +582,23 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
+    <row r="1" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/Donnes.xlsx
+++ b/src/main/resources/Donnes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wbenmessaoud\Desktop\Wass\TrainingZenity\Appium-demo-Zenity\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554155A2-F738-4550-A13A-3B1DAB154FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A263A8-DA07-4920-8361-14C994364757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02BA424B-3285-4C5E-ACAA-4E99BC427988}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>wass1993</t>
   </si>
   <si>
-    <t>test276678@yopmail.com</t>
+    <t>cebeat@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
